--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>

--- a/Översikt TYRESÖ.xlsx
+++ b/Översikt TYRESÖ.xlsx
@@ -575,7 +575,7 @@
         <v>44497</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
